--- a/templates/export/route.xlsx
+++ b/templates/export/route.xlsx
@@ -2,12 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\traccar\templates\export\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="153222"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11535"/>
   </bookViews>
@@ -26,8 +21,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Куницын Андрей Сергеевич</author>
-    <author/>
+    <author>Автор</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0">
@@ -57,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="1" shapeId="0">
+    <comment ref="A9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>

--- a/templates/export/route.xlsx
+++ b/templates/export/route.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\traccar\templates\export\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="992"/>
   </bookViews>
   <sheets>
-    <sheet name="template" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="template" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -35,11 +39,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">jx:area(lastCell="H9")</t>
+          <t>jx:area(lastCell="H9")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -49,11 +53,11 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t xml:space="preserve">jx:each(items="devices", var="device", lastCell="H9" multisheet="sheetNames")</t>
+          <t>jx:each(items="devices", var="device", lastCell="H9" multisheet="sheetNames")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0">
+    <comment ref="A9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +67,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t xml:space="preserve">jx:each(items="device.objects", var="position", lastCell="H9")</t>
+          <t>jx:each(items="device.objects", var="position", lastCell="H9")</t>
         </r>
       </text>
     </comment>
@@ -74,90 +78,88 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
-    <t xml:space="preserve">Report type:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Route</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Device:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${device.deviceName}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${device.groupName}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${"".format('%1$tY-%1$tm-%1$td %1$tH:%1$tM:%1$tS - %2$tY-%2$tm-%2$td %2$tH:%2$tM:%2$tS', from, to)}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Altitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attributes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${position.valid}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${position.fixTime}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${position.latitude}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${position.longitude}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${position.altitude}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${speedUnit.equals("kmh") ? "".format("%.1f km/h", position.speed * 1.852) : speedUnit.equals("mph") ? "".format("%.1f mph", position.speed * 1.15078) : "".format("%.1f kn", position.speed)}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${util.hyperlink("".format("http://www.openstreetmap.org/?mlat=%1$f&amp;mlon=%2$f#map=16/%1$f/%2$f", position.latitude, position.longitude), position.getAddress() == null ? "".format("%1$f°, %2$f°", position.latitude, position.longitude) : position.address)}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${position.attributes.toString().replaceAll(",", " ").replaceAll(bracketsRegex, "")}</t>
+    <t>Report type:</t>
+  </si>
+  <si>
+    <t>Route</t>
+  </si>
+  <si>
+    <t>Device:</t>
+  </si>
+  <si>
+    <t>${device.deviceName}</t>
+  </si>
+  <si>
+    <t>Group:</t>
+  </si>
+  <si>
+    <t>${device.groupName}</t>
+  </si>
+  <si>
+    <t>Period:</t>
+  </si>
+  <si>
+    <t>${"".format('%1$tY-%1$tm-%1$td %1$tH:%1$tM:%1$tS - %2$tY-%2$tm-%2$td %2$tH:%2$tM:%2$tS', from, to)}</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Altitude</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Attributes</t>
+  </si>
+  <si>
+    <t>${position.valid}</t>
+  </si>
+  <si>
+    <t>${position.fixTime}</t>
+  </si>
+  <si>
+    <t>${position.latitude}</t>
+  </si>
+  <si>
+    <t>${position.longitude}</t>
+  </si>
+  <si>
+    <t>${position.altitude}</t>
+  </si>
+  <si>
+    <t>${speedUnit.equals("kmh") ? "".format("%.1f km/h", position.speed * 1.852) : speedUnit.equals("mph") ? "".format("%.1f mph", position.speed * 1.15078) : "".format("%.1f kn", position.speed)}</t>
+  </si>
+  <si>
+    <t>${util.hyperlink("".format("http://www.openstreetmap.org/?mlat=%1$f&amp;mlon=%2$f#map=16/%1$f/%2$f", position.latitude, position.longitude), position.getAddress() == null ? "".format("%1$f°, %2$f°", position.latitude, position.longitude) : position.address)}</t>
+  </si>
+  <si>
+    <t>${position.attributes.toString().replaceAll(",", " ").replaceAll(bracketsRegex, "")}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="DD/MM/YYYY\ HH:MM:SS"/>
-    <numFmt numFmtId="167" formatCode="0.000000"/>
-    <numFmt numFmtId="168" formatCode="0&quot; m&quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="166" formatCode="0&quot; m&quot;"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -166,22 +168,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF444444"/>
       <name val="Calibri"/>
@@ -189,7 +176,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -218,7 +205,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -276,140 +263,95 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="9" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="15" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="15" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="9"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+  <cellStyles count="2">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Пояснение" xfId="1" builtinId="53" customBuiltin="1"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -468,35 +410,443 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4019550</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1030" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4019550</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1028" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4019550</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+  <a:themeElements>
+    <a:clrScheme name="Стандартная">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Стандартная">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Стандартная">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7857142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6785714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7551020408163"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.4489795918367"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="61.484693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="72.6530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.68367346938776"/>
+    <col min="1" max="1" width="13.7109375"/>
+    <col min="2" max="2" width="20.7109375"/>
+    <col min="3" max="4" width="13"/>
+    <col min="5" max="5" width="10.7109375"/>
+    <col min="6" max="6" width="11.42578125"/>
+    <col min="7" max="7" width="61.42578125"/>
+    <col min="8" max="8" width="72.7109375"/>
+    <col min="9" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -506,7 +856,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,7 +870,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -530,7 +880,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -544,7 +894,7 @@
       <c r="G4" s="7"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -558,7 +908,7 @@
       <c r="G5" s="7"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -572,7 +922,7 @@
       <c r="G6" s="7"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="8"/>
@@ -582,7 +932,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
@@ -608,7 +958,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" s="19" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:8" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>16</v>
       </c>
@@ -635,13 +985,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/templates/export/route.xlsx
+++ b/templates/export/route.xlsx
@@ -2,12 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\traccar\templates\export\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="153222"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="992"/>
   </bookViews>
@@ -26,7 +21,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author/>
+    <author>Автор</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0">
@@ -985,9 +980,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/templates/export/route.xlsx
+++ b/templates/export/route.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="992"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
     <t>Period:</t>
   </si>
   <si>
-    <t>${"".format('%1$tY-%1$tm-%1$td %1$tH:%1$tM:%1$tS - %2$tY-%2$tm-%2$td %2$tH:%2$tM:%2$tS', from, to)}</t>
+    <t>${from.toString("YYYY.MM.dd HH:mm:ss")+" - "+to.toString("YYYY.MM.dd HH:mm:ss")}</t>
   </si>
   <si>
     <t>Valid</t>
@@ -124,7 +124,7 @@
     <t>${position.valid}</t>
   </si>
   <si>
-    <t>${position.fixTime}</t>
+    <t>${new("org.joda.time.DateTime", position.fixTime, timezone).toString("YYYY.MM.dd HH:mm:ss")}</t>
   </si>
   <si>
     <t>${position.latitude}</t>
@@ -139,10 +139,10 @@
     <t>${speedUnit.equals("kmh") ? "".format("%.1f km/h", position.speed * 1.852) : speedUnit.equals("mph") ? "".format("%.1f mph", position.speed * 1.15078) : "".format("%.1f kn", position.speed)}</t>
   </si>
   <si>
-    <t>${util.hyperlink("".format("http://www.openstreetmap.org/?mlat=%1$f&amp;mlon=%2$f#map=16/%1$f/%2$f", position.latitude, position.longitude), position.getAddress() == null ? "".format("%1$f°, %2$f°", position.latitude, position.longitude) : position.address)}</t>
-  </si>
-  <si>
     <t>${position.attributes.toString().replaceAll(",", " ").replaceAll(bracketsRegex, "")}</t>
+  </si>
+  <si>
+    <t>${util.hyperlink("".format("https://www.openstreetmap.org/?mlat=%1$f&amp;mlon=%2$f#map=16/%1$f/%2$f", position.latitude, position.longitude), position.getAddress() == null ? "".format("%1$f°, %2$f°", position.latitude, position.longitude) : position.address)}</t>
   </si>
 </sst>
 </file>
@@ -291,17 +291,17 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="9"/>
+      <alignment horizontal="left" indent="15"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+      <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+      <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
@@ -428,6 +428,159 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4019040</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>151920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11381760" cy="9524520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4019040</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>151920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11381760" cy="9524520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4019040</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>151920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11381760" cy="9524520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -826,7 +979,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,8 +989,8 @@
     <col min="3" max="4" width="13"/>
     <col min="5" max="5" width="10.7109375"/>
     <col min="6" max="6" width="11.42578125"/>
-    <col min="7" max="7" width="61.42578125"/>
-    <col min="8" max="8" width="72.7109375"/>
+    <col min="7" max="7" width="61.85546875"/>
+    <col min="8" max="8" width="73.28515625"/>
     <col min="9" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
@@ -973,10 +1126,10 @@
         <v>21</v>
       </c>
       <c r="G9" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="18" t="s">
         <v>22</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
